--- a/OnBoard/output/trust/catch/Catch_Trust_28.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_28.xlsx
@@ -1597,7 +1597,7 @@
         <v>0.051</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I30">
         <v>5.2968</v>
@@ -2212,7 +2212,7 @@
         <v>1.053</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
         <v>5.2968</v>
@@ -2458,7 +2458,7 @@
         <v>0.377</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I51">
         <v>5.2968</v>
